--- a/Assets/Scripts/Skill/PassiveBundle.xlsx
+++ b/Assets/Scripts/Skill/PassiveBundle.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>SkillName</t>
   </si>
@@ -43,6 +43,9 @@
     <t>BundleName</t>
   </si>
   <si>
+    <t>SkillInformation</t>
+  </si>
+  <si>
     <t>StartMoney</t>
   </si>
   <si>
@@ -52,16 +55,37 @@
     <t>Money</t>
   </si>
   <si>
+    <t>게임 시작 시 초기 자본을 더 많이 받습니다.</t>
+  </si>
+  <si>
     <t>SetTowerDown</t>
   </si>
   <si>
+    <t>타워를 짓는 비용이 감소합니다.</t>
+  </si>
+  <si>
     <t>UpTowerDown</t>
   </si>
   <si>
+    <t>타워의 업그레이드 비용이 감소합니다.</t>
+  </si>
+  <si>
     <t>GetCoinUp</t>
   </si>
   <si>
+    <t>적 처치시 얻는 코인의 양이 증가합니다.</t>
+  </si>
+  <si>
     <t>SellTowerUp</t>
+  </si>
+  <si>
+    <t>타워를 팔 때 돈을 더 많이 받습니다.</t>
+  </si>
+  <si>
+    <t>GetUserCoinUp</t>
+  </si>
+  <si>
+    <t>스테이지 클리어 시 얻는 유저 코인이 증가합니다.</t>
   </si>
 </sst>
 </file>
@@ -330,6 +354,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="11" max="11" width="87.5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -362,13 +389,16 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C2" s="1">
         <v>100.0</v>
@@ -380,10 +410,10 @@
         <v>5.0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1">
-        <v>10.0</v>
+        <v>0.1</v>
       </c>
       <c r="H2" s="1">
         <v>50.0</v>
@@ -392,15 +422,18 @@
         <v>0.0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C3" s="1">
         <v>120.0</v>
@@ -412,10 +445,10 @@
         <v>5.0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1">
-        <v>10.0</v>
+        <v>-0.1</v>
       </c>
       <c r="H3" s="1">
         <v>80.0</v>
@@ -424,15 +457,18 @@
         <v>0.0</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C4" s="1">
         <v>200.0</v>
@@ -444,10 +480,10 @@
         <v>3.0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1">
-        <v>10.0</v>
+        <v>-0.1</v>
       </c>
       <c r="H4" s="1">
         <v>100.0</v>
@@ -456,15 +492,18 @@
         <v>0.0</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C5" s="1">
         <v>150.0</v>
@@ -476,10 +515,10 @@
         <v>5.0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" s="1">
-        <v>10.0</v>
+        <v>0.1</v>
       </c>
       <c r="H5" s="1">
         <v>75.0</v>
@@ -488,15 +527,18 @@
         <v>0.0</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
-        <v>10.0</v>
+        <v>0.7</v>
       </c>
       <c r="C6" s="1">
         <v>150.0</v>
@@ -508,10 +550,10 @@
         <v>3.0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G6" s="1">
-        <v>10.0</v>
+        <v>0.1</v>
       </c>
       <c r="H6" s="1">
         <v>100.0</v>
@@ -520,7 +562,45 @@
         <v>0.0</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
